--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -40,21 +40,21 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
@@ -64,81 +64,75 @@
     <t>negative</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>dumb</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>black</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
@@ -163,91 +157,97 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>free</t>
+    <t>top</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>live</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
+    <t>real</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -611,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -780,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9696969696969697</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,16 +951,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,16 +1051,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.7241379310344828</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.6933333333333334</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.5666666666666667</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1180,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.5384615384615384</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,16 +1301,16 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.4242424242424243</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.4210526315789473</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -1498,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.3541666666666667</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6923076923076923</v>
+        <v>0.625</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.3043478260869565</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,37 +1580,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.2439024390243902</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.65</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.2372881355932203</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.625</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.2258652094717669</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L23">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M23">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6086956521739131</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.1851851851851852</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5869565217391305</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.1639344262295082</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.574468085106383</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.1521739130434783</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.1368421052631579</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,7 +1930,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5416666666666666</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -1948,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1267605633802817</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1230769230769231</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2030,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2051,16 +2051,16 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.08235294117647059</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2080,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2098,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.02932551319648094</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>331</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2130,13 +2130,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4705882352941176</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2148,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.02304737516005122</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>763</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2180,13 +2180,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4358974358974359</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2198,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.02120141342756184</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>277</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2230,13 +2230,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3214285714285715</v>
+        <v>0.25</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.02108433734939759</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2280,13 +2280,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3157894736842105</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2298,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.01851851851851852</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>530</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2330,125 +2330,127 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37">
+        <v>0.01759530791788856</v>
+      </c>
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K36">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L36">
-        <v>11</v>
-      </c>
-      <c r="M36">
-        <v>11</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C37">
+      <c r="K38">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L38">
         <v>13</v>
       </c>
-      <c r="D37">
+      <c r="M38">
         <v>13</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>65</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K37">
-        <v>0.01382488479262673</v>
-      </c>
-      <c r="L37">
-        <v>24</v>
-      </c>
-      <c r="M37">
-        <v>24</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="C38">
-        <v>13</v>
-      </c>
-      <c r="D38">
-        <v>13</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>286</v>
+      <c r="K39">
+        <v>0.01612903225806452</v>
+      </c>
+      <c r="L39">
+        <v>28</v>
+      </c>
+      <c r="M39">
+        <v>28</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
